--- a/artifacts/recipes/new_data/allrecipescom/healthy/healthy_salads.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/healthy/healthy_salads.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699658346-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Healthy Salads</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699658355-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GpIH0vZfuyxh0o0Lodop_fYGHYM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/428409-red-white-and-blueberry-fruit-salad-Melissa-Goff-1x1-1-6795daeb6bba4c72a479756405ce6252.jpg"
@@ -204,59 +545,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214674/red-white-and-blueberry-fruit-salad/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Red, White, and Blueberry Fruit Salad</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pint strawberries, hulled and quartered\n\n\n1 pint blueberries\n\n\n½ cup white sugar\n\n\n2 tablespoons lemon juice\n\n\n4  bananas"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pint strawberries, hulled and quartered\n\n\n1 pint blueberries\n\n\n½ cup white sugar\n\n\n2 tablespoons lemon juice\n\n\n4  bananas'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix strawberries and blueberries together in a bowl, sprinkle with sugar and lemon juice; toss lightly. Refrigerate until cold, at least 30 minutes."},{"recipe_directions":"About 30 minutes before serving, cut bananas into 3/4-inch thick slices; toss with berries."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"},{"recipe_tags":"Strawberry Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"140\nCalories\n\n\n1g \nFat\n\n\n36g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699658364-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KfSlqQWb_VM5CZmpIP2GaKPXJvk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/212037-e5239507634c49cd9157aca334abb28b.jpg"
@@ -269,59 +606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/56136/mexican-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Mexican Cucumber Salad</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) can stewed tomatoes, drained and sliced\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 medium cucumber, chopped\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n2 tablespoons red wine vinegar\n\n\n1 tablespoon crushed red pepper flakes or to taste\n\n\n½ teaspoon garlic, minced\n\n\n½ teaspoon cumin\n\n\n¼ teaspoon dried cilantro\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) can stewed tomatoes, drained and sliced\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 medium cucumber, chopped\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n2 tablespoons red wine vinegar\n\n\n1 tablespoon crushed red pepper flakes or to taste\n\n\n½ teaspoon garlic, minced\n\n\n½ teaspoon cumin\n\n\n¼ teaspoon dried cilantro\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tomatoes, corn, cucumber, green bell pepper, red bell pepper, and red wine vinegar in a large bowl. Stir in crushed red pepper flakes, garlic, cumin, cilantro, salt, and black pepper. Cover and chill for at least 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Cucumber Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"75\nCalories\n\n\n1g \nFat\n\n\n17g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699658372-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TyuW0VjnWrVOlkFs9OmQHvwYbn0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1092820-0240a2907a1d4c9fae860b1275893a67.jpg"
@@ -334,59 +667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/103737/celery-salad/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Celery Salad</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup sliced celery\n\n\n⅓ cup dried sweet cherries\n\n\n⅓ cup frozen green peas, thawed\n\n\n3 tablespoons chopped fresh parsley\n\n\n1 tablespoon chopped pecans, toasted\n\n\n1 ½ tablespoons fat-free mayonnaise\n\n\n1 ½ tablespoons plain low-fat yogurt\n\n\n1 ½ teaspoons fresh lemon juice\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup sliced celery\n\n\n⅓ cup dried sweet cherries\n\n\n⅓ cup frozen green peas, thawed\n\n\n3 tablespoons chopped fresh parsley\n\n\n1 tablespoon chopped pecans, toasted\n\n\n1 ½ tablespoons fat-free mayonnaise\n\n\n1 ½ tablespoons plain low-fat yogurt\n\n\n1 ½ teaspoons fresh lemon juice\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, combine the celery, cherries, peas, parsley and pecans. Stir in the mayonnaise, yogurt and lemon juice. Season with salt and pepper. Chill before serving."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"150\nCalories\n\n\n3g \nFat\n\n\n27g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699658378-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fii1b7aQ3P6AXC9WLWurS3CYnIo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/5144746-aacd82f300144191a13387da699a55a3.jpg"
@@ -399,59 +728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/188601/cucumber-tomato-and-red-onion-salad/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cucumber, Tomato, and Red Onion Salad</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  tomatoes, cut into 8 wedges\n\n\n2 large cucumbers, peeled and sliced\n\n\n1 large red onion, chopped\n\n\n¼ cup chopped fresh cilantro\n\n\n1  lime, juiced\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  tomatoes, cut into 8 wedges\n\n\n2 large cucumbers, peeled and sliced\n\n\n1 large red onion, chopped\n\n\n¼ cup chopped fresh cilantro\n\n\n1  lime, juiced\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix tomatoes, cucumbers, red onion, cilantro, and lime juice together in a bowl. Season with salt and serve."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"41\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699658385-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rVvOdG5GR8mMQ1ziszcu-duxk3s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/37495-77b891f5537448809fe814064ae585bf.jpg"
@@ -464,59 +789,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86338/fruity-couscous-salad/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Fruity Couscous Salad</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups dry couscous\n\n\n2 cups boiling water\n\n\n⅔ cup sweetened dried cranberries\n\n\n⅔ cup slivered almonds\n\n\n½ cup packed dried apricots, chopped\n\n\n3 medium scallions, thinly sliced with greens\n\n\n1 teaspoon cumin\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups dry couscous\n\n\n2 cups boiling water\n\n\n⅔ cup sweetened dried cranberries\n\n\n⅔ cup slivered almonds\n\n\n½ cup packed dried apricots, chopped\n\n\n3 medium scallions, thinly sliced with greens\n\n\n1 teaspoon cumin\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place couscous in a bowl and pour boiling water over top. Gently stir, then cover and let sit for 5 minutes."},{"recipe_directions":"Meanwhile, place cranberries in a glass liquid measure and add water to cover. Microwave on high for 1 minute; drain."},{"recipe_directions":"Add cranberries to the couscous, along with almonds, apricots, scallions, cumin, salt, and pepper. Toss well to combine. Serve at room temperature or chilled."},{"recipe_directions":"Copyright 2004 Jean Carper. Printed first in USA WEEKEND. All rights reserved."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Fruit Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"218\nCalories\n\n\n5g \nFat\n\n\n38g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699658392-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BJimTciKAjHJmwNd41N1ZeQFPns=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1123424-6f439bc8b3e9468b895d38f5c6cc2760.jpg"
@@ -529,59 +850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237349/caesar-potato-salad/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Caesar Potato Salad</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 slices bacon\n\n\n24  baby red potatoes\n\n\n2 tablespoons olive oil, or as needed\n\n\n  cracked black pepper to taste\n\n\n⅓ cup Caesar salad dressing\n\n\n4  green onions, diced"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 slices bacon\n\n\n24  baby red potatoes\n\n\n2 tablespoons olive oil, or as needed\n\n\n  cracked black pepper to taste\n\n\n⅓ cup Caesar salad dressing\n\n\n4  green onions, diced'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat, occasionally turning, until evenly browned, about 10 minutes. Drain bacon slices on paper towels and crumble."},{"recipe_directions":"Place potatoes into a large pot and cover with salted water; bring to a boil. Reduce heat to medium-low and simmer until slightly tender, about 8 minutes. Drain and transfer potatoes to a baking dish. Drizzle olive oil over potatoes and season with black pepper."},{"recipe_directions":"Bake in the preheated oven until tender, about 10 minutes."},{"recipe_directions":"Mix potatoes, bacon bits, Caesar salad dressing, and green onions together in a bowl. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Potato Salad Recipes"},{"recipe_tags":"Red Potato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n6g \nFat\n\n\n41g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699658398-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C9Jdy1BOleoYD33q238QlsnCHpU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1035994-9e1780e26f584953bd79310f2d88a82d.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233361/pineapple-slaw/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Pineapple Slaw</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n20 \n\n\nYield:\n20 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium head green cabbage, chopped\n\n\n1  fresh pineapple - peeled, cored, and cut into small pieces\n\n\n4  green onions, chopped\n\n\n1  bell pepper, chopped\n\n\n⅓ cup white vinegar\n\n\n¼ cup mayonnaise\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium head green cabbage, chopped\n\n\n1  fresh pineapple - peeled, cored, and cut into small pieces\n\n\n4  green onions, chopped\n\n\n1  bell pepper, chopped\n\n\n⅓ cup white vinegar\n\n\n¼ cup mayonnaise\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cabbage, pineapple, green onions, and bell pepper together in a large bowl."},{"recipe_directions":"Whisk vinegar, mayonnaise, sugar, salt, and pepper together in a separate bowl; drizzle over cabbage mixture and toss to coat."},{"recipe_directions":"Cover bowl with plastic wrap and refrigerate at least 2 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"With Mayo"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"70\nCalories\n\n\n2g \nFat\n\n\n13g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699658404-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CfoqZ5N0SHedVkZO7K2sxB3s0Rk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2391805-b24d9bbb23074843ba36e8fbeec41a00.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214509/caribbean-slaw/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Caribbean Slaw</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ head green cabbage, shredded\n\n\n1  red bell pepper, thinly sliced\n\n\n½  red onion, thinly sliced\n\n\n2  carrots, peeled and shredded\n\n\n1  mango - peeled, seeded, and diced\n\n\n½ cup fresh cilantro, chopped\n\n\n⅓ cup nonfat plain yogurt\n\n\n2 tablespoons reduced-fat mayonnaise\n\n\n1 tablespoon prepared yellow mustard\n\n\n1 tablespoon apple cider vinegar\n\n\n1 teaspoon agave nectar\n\n\n  salt and black pepper to taste\n\n\n1 dash habanero hot sauce, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ head green cabbage, shredded\n\n\n1  red bell pepper, thinly sliced\n\n\n½  red onion, thinly sliced\n\n\n2  carrots, peeled and shredded\n\n\n1  mango - peeled, seeded, and diced\n\n\n½ cup fresh cilantro, chopped\n\n\n⅓ cup nonfat plain yogurt\n\n\n2 tablespoons reduced-fat mayonnaise\n\n\n1 tablespoon prepared yellow mustard\n\n\n1 tablespoon apple cider vinegar\n\n\n1 teaspoon agave nectar\n\n\n  salt and black pepper to taste\n\n\n1 dash habanero hot sauce, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss the cabbage, red bell pepper, red onion, carrots, mango, and cilantro together in a large bowl."},{"recipe_directions":"Whisk the yogurt, mayonnaise, mustard, cider vinegar, agave nectar, salt, pepper, and hot sauce together in a small bowl; pour over the cabbage mixture and toss to coat. Allow the slaw to marinate in the refrigerator for at least 1 hour to allow the flavors to combine."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"With Mayo"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"61\nCalories\n\n\n1g \nFat\n\n\n13g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699658411-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uEr4RSeLuL-AI57MRfHJH-kUBVs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/814066-f00abd5612d8492982c78baa6538cc65.jpg"
@@ -724,59 +1033,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220840/cucumber-carrot-salad/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Cucumber-Carrot Salad</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup seasoned rice vinegar\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon vegetable oil\n\n\n¼ teaspoon grated peeled ginger\n\n\n¼ teaspoon salt\n\n\n1 cup sliced carrot\n\n\n2 tablespoons sliced green onion\n\n\n2 tablespoons minced red bell pepper\n\n\n½  cucumber - halved lengthwise, seeded, and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup seasoned rice vinegar\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon vegetable oil\n\n\n¼ teaspoon grated peeled ginger\n\n\n¼ teaspoon salt\n\n\n1 cup sliced carrot\n\n\n2 tablespoons sliced green onion\n\n\n2 tablespoons minced red bell pepper\n\n\n½  cucumber - halved lengthwise, seeded, and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk rice vinegar, sugar, vegetable oil, ginger, and salt together in a bowl until sugar and salt are dissolved into a smooth dressing."},{"recipe_directions":"Toss carrot, green onion, bell pepper, and cucumber in the dressing to evenly coat."},{"recipe_directions":"Cover bowl with plastic wrap and refrigerate until chilled, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Carrot Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"59\nCalories\n\n\n1g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699658419-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r9k4Igl7MxS-sa4NNeQVw_KlhRU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3669502-e81c942623dd44ebb5a16698f795b1f5.jpg"
@@ -789,59 +1094,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220620/green-bean-and-asparagus-salad/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Green Bean and Asparagus Salad</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh green beans, trimmed and cut into bite-size pieces\n\n\n1 tablespoon extra-virgin olive oil (Optional)\n\n\n1 pound fresh asparagus, trimmed and cut into bite-size pieces\n\n\n1 tablespoon extra-virgin olive oil (Optional)\n\n\n½  red onion, chopped\n\n\n2 cups cherry tomatoes, halved\n\n\n¼ cup chopped fresh parsley\n\n\n  kosher salt to taste\n\n\n  ground black pepper to taste\n\n\n1 tablespoon extra-virgin olive oil, or as desired (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh green beans, trimmed and cut into bite-size pieces\n\n\n1 tablespoon extra-virgin olive oil (Optional)\n\n\n1 pound fresh asparagus, trimmed and cut into bite-size pieces\n\n\n1 tablespoon extra-virgin olive oil (Optional)\n\n\n½  red onion, chopped\n\n\n2 cups cherry tomatoes, halved\n\n\n¼ cup chopped fresh parsley\n\n\n  kosher salt to taste\n\n\n  ground black pepper to taste\n\n\n1 tablespoon extra-virgin olive oil, or as desired (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss green bean pieces and 1 tablespoon olive oil in a bowl until the green beans are evenly coated; spread onto a baking sheet."},{"recipe_directions":"Roast green beans in preheated oven until tender, about 10 minutes."},{"recipe_directions":"Toss asparagus pieces and 1 tablespoon oil in a bowl until the asparagus is evenly coated; spread onto the baking sheet with the partially roasted green beans."},{"recipe_directions":"Continue roasting the green bean and asparagus mixture until tender, 10 to 12 minutes."},{"recipe_directions":"Toss the roasted green beans and asparagus with red onion, cherry tomatoes, and parsley in a large bowl; season with kosher salt and black pepper. Drizzle with olive oil to taste, if desired."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"86\nCalories\n\n\n5g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699658425-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3dbjwlv6p_ugaC24DdjjRA6Abcs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1081167-6ea0141308be46cb81405a1fc1fb9bbc.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217051/cranberry-and-cilantro-quinoa-salad/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Cranberry and Cilantro Quinoa Salad</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups water\n\n\n1 cup uncooked quinoa, rinsed\n\n\n¼ cup red bell pepper, chopped\n\n\n¼ cup yellow bell pepper, chopped\n\n\n1 small red onion, finely chopped\n\n\n1 ½ teaspoons curry powder\n\n\n¼ cup chopped fresh cilantro\n\n\n1  lime, juiced\n\n\n¼ cup toasted sliced almonds\n\n\n½ cup minced carrots\n\n\n½ cup dried cranberries\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups water\n\n\n1 cup uncooked quinoa, rinsed\n\n\n¼ cup red bell pepper, chopped\n\n\n¼ cup yellow bell pepper, chopped\n\n\n1 small red onion, finely chopped\n\n\n1 ½ teaspoons curry powder\n\n\n¼ cup chopped fresh cilantro\n\n\n1  lime, juiced\n\n\n¼ cup toasted sliced almonds\n\n\n½ cup minced carrots\n\n\n½ cup dried cranberries\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour the water into a saucepan, and cover with a lid. Bring to a boil over high heat, then pour in the quinoa, recover, and continue to simmer over low heat until the water has been absorbed, 15 to 20 minutes. Scrape into a mixing bowl, and chill in the refrigerator until cold."},{"recipe_directions":"Once cold, stir in the red bell pepper, yellow bell pepper, red onion, curry powder, cilantro, lime juice, sliced almonds, carrots, and cranberries. Season to taste with salt and pepper. Chill before serving."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Quinoa Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n4g \nFat\n\n\n32g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699658433-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sizsJI7mFnJpnyC4LfDGvKCssJ0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1006672-1bade22fd72446b0914a5b637d893b1f.jpg"
@@ -919,59 +1216,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222722/kale-salad/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Kale Salad</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup lemon juice\n\n\n1 tablespoon canola oil\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 bunch kale, cut into bite-size pieces\n\n\n1 large tomato, seeded and diced\n\n\n½ cup roasted sunflower seeds\n\n\n½ cup dried cranberries"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup lemon juice\n\n\n1 tablespoon canola oil\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 bunch kale, cut into bite-size pieces\n\n\n1 large tomato, seeded and diced\n\n\n½ cup roasted sunflower seeds\n\n\n½ cup dried cranberries'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk lemon juice, canola oil, olive oil, sugar, salt, and black pepper in a large bowl. Add kale, tomato, sunflower seeds, and cranberries; toss to combine."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Kale Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"182\nCalories\n\n\n8g \nFat\n\n\n29g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699658440-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tvVPe1HkaNyOLILbElu4Gysm-Kc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4578989-f2781a2afbf045a9a6a3e0f432980931.jpg"
@@ -984,59 +1277,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233169/shredded-apple-carrot-salad/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Shredded Apple Carrot Salad</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons sesame seeds\n\n\n2 cups shredded carrots\n\n\n1  Granny Smith apple, cored and shredded\n\n\n½ cup chopped fresh parsley\n\n\n¼ cup lemon juice\n\n\n2 tablespoons apple cider vinegar\n\n\n1 tablespoon white sugar\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n2 tablespoons safflower oil"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons sesame seeds\n\n\n2 cups shredded carrots\n\n\n1  Granny Smith apple, cored and shredded\n\n\n½ cup chopped fresh parsley\n\n\n¼ cup lemon juice\n\n\n2 tablespoons apple cider vinegar\n\n\n1 tablespoon white sugar\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n2 tablespoons safflower oil'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a skillet over medium heat; pour sesame seeds into the hot skillet. Cook, stirring often, until sesame seeds are lightly browned and fragrant, 3 to 5 minutes. Remove from heat."},{"recipe_directions":"Mix carrots, apple, toasted sesame seeds, and parsley together in a bowl."},{"recipe_directions":"Whisk lemon juice, vinegar, sugar, garlic, salt, and pepper together in a separate bowl; slowly drizzle safflower oil into lemon juice mixture while continuing to whisk. Pour dressing over carrot mixture; toss to coat."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Carrot Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"97\nCalories\n\n\n6g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699658448-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GBUVkURzaiMyh_H-NOF6fLaOtZE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/666307-53309f186bc94d2c9ca12fc98199aa49.jpg"
@@ -1049,59 +1338,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14166/pasta-chickpea-salad/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Pasta Chickpea Salad</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 8 hrs 10 mins\n\n\nTotal Time:\n 8 hrs 45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package rotelle pasta\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ cup chopped oil-cured olives\n\n\n2 tablespoons minced fresh oregano\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n¼ cup red wine vinegar\n\n\n½ cup grated Parmesan cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package rotelle pasta\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ cup chopped oil-cured olives\n\n\n2 tablespoons minced fresh oregano\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n¼ cup red wine vinegar\n\n\n½ cup grated Parmesan cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil, add pasta and cook until al dente, 9 to 12 minutes. Drain and rinse under cold water. Set aside to cool."},{"recipe_directions":"As the pasta is cooking, heat olive oil in a large skillet over medium-low heat. Add olives, oregano, parsley, green onions, and chickpeas. Reduce heat to low; cook for about 20 minutes. Set aside to cool, 10 to 15 minutes."},{"recipe_directions":"Transfer chickpea mixture to a large bowl; add pasta and toss. Stir in vinegar, grated Parmesan cheese and season with salt and pepper. Cover and refrigerate, 8 hours to overnight."},{"recipe_directions":"When ready to serve, taste for seasoning and add more vinegar, olive oil, salt, and pepper if desired."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"424\nCalories\n\n\n10g \nFat\n\n\n69g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699658454-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lTX-NOJTMlkTRKJA3NqKgaFkWYI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/6448629-c860f205aa374a8db4d32fd7bce1255f.jpg"
@@ -1114,59 +1399,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218890/100-fruit-cake/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>100% Fruit "Cake"</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  seedless watermelon\n\n\n2 cups strawberries, hulled and sliced\n\n\n1  cantaloupe - seeded, peeled, and sliced (Optional)\n\n\n1  fresh pineapple - peeled, cored, and sliced (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  seedless watermelon\n\n\n2 cups strawberries, hulled and sliced\n\n\n1  cantaloupe - seeded, peeled, and sliced (Optional)\n\n\n1  fresh pineapple - peeled, cored, and sliced (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To create the base tier of the cake, cut 3 slices of watermelon, 1 to 2 inches thick, crossways through the center of the melon. Trim the rind from the watermelon slices, and place the largest slice onto a cake plate. Alternate layering sliced strawberries, slices of cantaloupe, and slices of fresh pineapple; follow with the second-largest watermelon slice. Repeat once more to make a layered fruit stack that looks like a cake."},{"recipe_directions":"Thinly slice a few pieces of remaining melon and pineapple. With cookie cutters or a sharp knife, cut remaining fruit slices into decorative shapes. Decorate the cake tiers with the cut fruit shapes and remaining berries."},{"recipe_directions":"Refrigerate until serving time. To serve, slice the cake with a sharp knife, one wedge at a time, and set the wedge onto a plate."},{"recipe_directions":"I used defrosted and drained blueberries and they were fine. Chopped grapes made a nice \"salsa\" on the side. Shredded coconut can also be sprinkled on top to decorate."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n1g \nFat\n\n\n59g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699658461-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RcFz39VReFnZeqPV5X1Ji9ZZNdQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1003504-faf9fb343b2d467bb143cef9f505b671.jpg"
@@ -1179,59 +1460,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228231/summer-fruit-salad-with-a-lemon-honey-and-mint-dressing/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Summer Fruit Salad with a Lemon, Honey, and Mint Dressing</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups cubed seeded watermelon\n\n\n2 cups sliced fresh strawberries\n\n\n2 large  fresh peaches, cut into cubes\n\n\n2 large  nectarines, cut into cubes\n\n\n1  red Anjou pear, cut into cubes\n\n\n1 cup seedless grapes, halved\n\n\n2  lemons, juiced\n\n\n¼ cup minced fresh mint (chocolate mint preferred)\n\n\n½  lemon, zested\n\n\n1 tablespoon honey (fireweed honey preferred)"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups cubed seeded watermelon\n\n\n2 cups sliced fresh strawberries\n\n\n2 large  fresh peaches, cut into cubes\n\n\n2 large  nectarines, cut into cubes\n\n\n1  red Anjou pear, cut into cubes\n\n\n1 cup seedless grapes, halved\n\n\n2  lemons, juiced\n\n\n¼ cup minced fresh mint (chocolate mint preferred)\n\n\n½  lemon, zested\n\n\n1 tablespoon honey (fireweed honey preferred)'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine watermelon, strawberries, peaches, nectarines, pear, and grapes in a large mixing bowl."},{"recipe_directions":"Whisk lemon juice, mint, lemon zest, and honey together in a small bowl; drizzle over the fruit mixture and toss to coat."},{"recipe_directions":"Refrigerate 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"},{"recipe_tags":"Strawberry Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"99\nCalories\n\n\n1g \nFat\n\n\n25g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699658471-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JkjaLyCMQ4_XSIkya1vFn8C-4vc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/8475288-63d22a8ac00848d58e2b86cddc7dd35c.jpg"
@@ -1244,59 +1521,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/141843/summer-corn-salad-with-asparagus/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Summer Corn Salad with Asparagus</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 ears  corn, husk and silk removed\n\n\n1 bunch asparagus spears, trimmed and cut into 1-inch pieces\n\n\n1 (7 ounce) jar roasted sweet red peppers, drained and chopped\n\n\n2 cloves garlic, minced\n\n\n6  basil leaves, chopped\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon balsamic vinegar\n\n\n  salt and black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 ears  corn, husk and silk removed\n\n\n1 bunch asparagus spears, trimmed and cut into 1-inch pieces\n\n\n1 (7 ounce) jar roasted sweet red peppers, drained and chopped\n\n\n2 cloves garlic, minced\n\n\n6  basil leaves, chopped\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon balsamic vinegar\n\n\n  salt and black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium-low heat and lightly oil grate."},{"recipe_directions":"Place the ears of corn on the grill and cook until the kernels are tender, about ten minutes turning frequently. Remove the ears from the grill and cool. Cut the kernels off of the cob."},{"recipe_directions":"Fill a large saucepan with lightly salted water and bring to a boil over high heat. Add asparagus and cook until just tender, about 1 minute. Drain in a colander and rinse immediately under cold, running water until well chilled. Set aside."},{"recipe_directions":"Combine the corn, asparagus, roasted peppers, garlic, basil, olive oil, and balsamic vinegar in a large bowl; season with salt and pepper to taste. Serve at room temperature or chilled."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"174\nCalories\n\n\n4g \nFat\n\n\n35g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699658477-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FeEWNiS5ehrNfsVOnI4pilFCvms=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2331988-1ce9b36dd5064c888b5483d655661d76.jpg"
@@ -1309,59 +1582,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220468/fig-and-arugula-salad/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Fig and Arugula Salad</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups arugula\n\n\n8  fresh figs, quartered\n\n\n¼ cup grated Parmesan cheese\n\n\n2 tablespoons toasted pine nuts\n\n\n2 tablespoons honey\n\n\n2 tablespoons balsamic vinegar"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups arugula\n\n\n8  fresh figs, quartered\n\n\n¼ cup grated Parmesan cheese\n\n\n2 tablespoons toasted pine nuts\n\n\n2 tablespoons honey\n\n\n2 tablespoons balsamic vinegar'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss arugula, figs, Parmesan cheese, and pine nuts together in a large bowl."},{"recipe_directions":"Drizzle honey and balsamic vinegar over salad before serving."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Arugula Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n4g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699658484-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/T8_UNsiyPKm9Dv6ilqj-1QY3LXY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7542166-927e38fcccb7422f9614894861307d7e.jpg"
@@ -1374,59 +1643,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222816/lower-fat-coleslaw/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Lower-Fat Coleslaw</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra-light mayonnaise\n\n\n¼ cup low-fat milk\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon apple cider vinegar\n\n\n1 tablespoon fresh lemon juice\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n1 head cabbage, finely shredded\n\n\n1 small onion, minced\n\n\n1  carrot, shredded and chopped"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra-light mayonnaise\n\n\n¼ cup low-fat milk\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon apple cider vinegar\n\n\n1 tablespoon fresh lemon juice\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n1 head cabbage, finely shredded\n\n\n1 small onion, minced\n\n\n1  carrot, shredded and chopped'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk mayonnaise, low-fat milk, white vinegar, apple cider vinegar, lemon juice, sugar, and salt together in a bowl and allow dressing to stand while preparing vegetables, about 20 minutes."},{"recipe_directions":"Pour dressing over cabbage, onion, and carrot in a large salad bowl and toss to combine. For best flavor, refrigerate slaw at least 2 hours to overnight."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"With Mayo"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"56\nCalories\n\n\n1g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699658492-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-pR-DnZWNElxcKa6n8u-JD7J7lU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/463312-241d12ab5b154a71b39619d5f1a52c80.jpg"
@@ -1439,59 +1704,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/114978/tuna-fish-pea-salad/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Tuna Fish Pea Salad</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) can chunk light tuna in water, drained\n\n\n1 (15 ounce) can peas, drained\n\n\n¼ cup reduced-fat mayonnaise, or as needed\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) can chunk light tuna in water, drained\n\n\n1 (15 ounce) can peas, drained\n\n\n¼ cup reduced-fat mayonnaise, or as needed\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the tuna into a bowl with the peas, and lightly stir to break up the tuna and combine with the peas. Add the mayonnaise, garlic powder, and pepper, and stir to mix well."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Tuna Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"103\nCalories\n\n\n1g \nFat\n\n\n7g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699658501-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AawN_02h5ZVIhr2AjbJ5yitKyPA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1293155-e1f36e13c75a4efc9d7d97af1c1373a8.jpg"
@@ -1504,59 +1765,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14229/tabbouleh-i/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Cucumber Tabbouleh</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup bulgur\n\n\n1 ⅔ cups boiling water\n\n\n⅓ cup olive oil\n\n\n⅓ cup lemon juice\n\n\n1 cup chopped green onions\n\n\n1 cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n3  tomatoes, chopped\n\n\n1  cucumber - peeled, seeded and chopped\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup bulgur\n\n\n1 ⅔ cups boiling water\n\n\n⅓ cup olive oil\n\n\n⅓ cup lemon juice\n\n\n1 cup chopped green onions\n\n\n1 cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n3  tomatoes, chopped\n\n\n1  cucumber - peeled, seeded and chopped\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine bulgur and boiling water in a large bowl. Cover, and set aside to soak for 1 hour."},{"recipe_directions":"Add oil, lemon juice, onions, parsley, mint, tomatoes, and cucumber; toss to combine. Season to taste with salt and black pepper. Cover, and refrigerate for at least 1 hour."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n10g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699658509-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LKe71gU4vwiV7gFwpU112iOwakw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/9230568-eec4e82fc3d34ac4a04f1e64618d6dbf.jpg"
@@ -1569,59 +1826,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231357/cold-lentil-salad/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Cold Lentil Salad</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 bulbs garlic\n\n\n1 teaspoon olive oil, divided\n\n\n1 pound dry brown lentils\n\n\n4 cups water, or as needed to cover\n\n\n1 pint grape tomatoes, halved\n\n\n1 bunch fresh parsley, finely chopped\n\n\n1 bunch green onions, thinly sliced\n\n\n¼ cup balsamic vinegar\n\n\n¼ cup olive oil\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 bulbs garlic\n\n\n1 teaspoon olive oil, divided\n\n\n1 pound dry brown lentils\n\n\n4 cups water, or as needed to cover\n\n\n1 pint grape tomatoes, halved\n\n\n1 bunch fresh parsley, finely chopped\n\n\n1 bunch green onions, thinly sliced\n\n\n¼ cup balsamic vinegar\n\n\n¼ cup olive oil\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Peel outer skins from garlic bulbs and cut about 1/4 inch from the top of each bulb to expose cloves; place each bulb onto a piece of aluminum foil, drizzle each with about 1/2 teaspoon olive oil, and wrap garlic bulbs in the foil. Place wrapped bulbs into a baking dish."},{"recipe_directions":"Bake garlic in the preheated oven until soft, about 30 minutes. Let bulbs cool."},{"recipe_directions":"Place lentils into a 5-quart pot and cover with water; bring to a boil. Reduce heat to medium-low and simmer until lentils are tender but not mushy, about 15 minutes; stir occasionally. Drain lentils in a fine-mesh strainer and rinse with cold water to cool; drain again."},{"recipe_directions":"Break garlic bulbs apart and squeeze cloves to release cooked garlic. Place garlic into a large salad bowl and add grape tomatoes, parsley, and green onions. Whisk balsamic vinegar with 1/4 cup olive oil, salt, and black pepper in a small bowl. Fold lentils into tomato mixture and pour dressing over salad; gently toss to coat. Keep refrigerated until serving time."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Lentil Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"183\nCalories\n\n\n6g \nFat\n\n\n26g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699658520-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NhHkB07sm20yXbRepV5juvybq0A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7166723-39776e79feff4ffc83cd8361561ff945.jpg"
@@ -1634,59 +1887,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13833/pineapple-carrot-salad/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Pineapple Carrot Salad</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n5 \n\n\nYield:\n4 to 6 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup raisins\n\n\n2 cups pineapple tidbits, drained\n\n\n1 pound carrots, grated\n\n\n1 cup pineapple yogurt\n\n\n2 tablespoons white sugar\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup raisins\n\n\n2 cups pineapple tidbits, drained\n\n\n1 pound carrots, grated\n\n\n1 cup pineapple yogurt\n\n\n2 tablespoons white sugar\n\n\n⅛ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak raisins in hot water for 30 minutes. Drain and dry."},{"recipe_directions":"In a mixing bowl, combine the raisins, pineapple and carrots."},{"recipe_directions":"Mix together the yogurt, sugar and salt. Add to carrot mixture; mix well, cover and refrigerate."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Carrot Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"205\nCalories\n\n\n1g \nFat\n\n\n50g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699658525-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/h0mnUNOevNDHm03YG0f5rVVYDTE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/802026-2fea6665028149f99a46336005dd7b6a.jpg"
@@ -1699,59 +1948,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/84860/lomi-lomi/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Lomi Lomi</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups diced salted salmon\n\n\n6 medium tomatoes, diced\n\n\n1  white onion, chopped\n\n\n½ cup chopped green onion\n\n\n  sea salt to taste\n\n\n  cayenne pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups diced salted salmon\n\n\n6 medium tomatoes, diced\n\n\n1  white onion, chopped\n\n\n½ cup chopped green onion\n\n\n  sea salt to taste\n\n\n  cayenne pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, stir together the salted salmon, tomatoes, white onion, green onion, sea salt and cayenne pepper. Chill for at least 30 minutes before serving. Serve chilled."},{"recipe_directions":"Sometimes the salmon is salty enough; taste it first before adding any salt. Additionally, if the fish is excessively salty, you can soak it over night and rinse prior to preparing this dish."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Salmon Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"44\nCalories\n\n\n1g \nFat\n\n\n4g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699658532-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qqQS2K09rKf8y6lTVO_FiZm5KD4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1224379-c631a23b544d474fbf1792eb51f3ac66.jpg"
@@ -1764,59 +2009,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214920/summer-anytime-crisp-corn-salad/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Summer Anytime Crisp Corn Salad</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons apple cider vinegar\n\n\n2 tablespoons white sugar\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon water\n\n\n1 pinch salt and ground black pepper\n\n\n1 (15.25 ounce) can sweet corn, drained\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped red bell pepper\n\n\n⅓ cup chopped sweet onion\n\n\n1 small tomato, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons apple cider vinegar\n\n\n2 tablespoons white sugar\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon water\n\n\n1 pinch salt and ground black pepper\n\n\n1 (15.25 ounce) can sweet corn, drained\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped red bell pepper\n\n\n⅓ cup chopped sweet onion\n\n\n1 small tomato, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together the apple cider vinegar, sugar, olive oil, water, salt, and pepper in a large bowl. Add the corn, green and red bell peppers, onion, and tomato, and lightly toss. Cover and refrigerate until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n5g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699658538-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6AM9UzabBUlLG35Has6eIz2Kr6E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4708181-d4fdf4a4e97f40318072714fcb02570a.jpg"
@@ -1829,59 +2070,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214982/red-bbq-slaw/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Red BBQ Slaw</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups finely shredded cabbage\n\n\n⅓ cup apple cider vinegar\n\n\n⅓ cup ketchup\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons crushed red pepper flakes, or to taste\n\n\n2 dashes hot pepper sauce, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups finely shredded cabbage\n\n\n⅓ cup apple cider vinegar\n\n\n⅓ cup ketchup\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons crushed red pepper flakes, or to taste\n\n\n2 dashes hot pepper sauce, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the cabbage into a salad bowl. In a small bowl, whisk together apple cider vinegar, ketchup, sugar, red pepper flakes, and hot sauce until the sugar has dissolved. Pour the dressing over the cabbage, toss thoroughly, and refrigerate at least 1 hour before serving."},{"recipe_directions":"Barbecue sauce can be substituted for ketchup, and I like to chill mine overnight to allow for the flavors to combine."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"34\nCalories\n\n\n0g \nFat\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699658547-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J_ID2_Vu2_PWc30snm5e2mT8_9M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/21455-c2251735815b42d2b08398bab140ea81.jpg"
@@ -1894,59 +2131,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24870/marinated-carrot-salad/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Marinated Carrot Salad</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds carrots, sliced\n\n\n1 (10.75 ounce) can  condensed tomato soup\n\n\n¼ cup white sugar\n\n\n½ cup white vinegar\n\n\n¼ cup canola oil\n\n\n1 teaspoon prepared mustard\n\n\n1 teaspoon Worcestershire sauce\n\n\n½ cup chopped celery\n\n\n½ cup chopped green onion\n\n\n1  green bell pepper, seeded and cut into strips"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds carrots, sliced\n\n\n1 (10.75 ounce) can  condensed tomato soup\n\n\n¼ cup white sugar\n\n\n½ cup white vinegar\n\n\n¼ cup canola oil\n\n\n1 teaspoon prepared mustard\n\n\n1 teaspoon Worcestershire sauce\n\n\n½ cup chopped celery\n\n\n½ cup chopped green onion\n\n\n1  green bell pepper, seeded and cut into strips'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to boil, add carrots and simmer until tender, approximately 3 to 5 minutes. Drain and set aside."},{"recipe_directions":"In a large bowl, whisk together the soup, sugar, vinegar, oil, mustard and Worcestershire sauce. Add carrots, celery, onion and pepper and toss to coat. Cover and refrigerate at least 4 hours to allow carrots to marinate."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Carrot Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n8g \nFat\n\n\n24g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699658552-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CnpxxbLzJo_nRb4RR7CvauV5Aa0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3546180-d814faf00a4f4eb5a4d8ea3c0ed610e5.jpg"
@@ -1959,59 +2192,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242096/kid-friendly-fruit-salad/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Kid-Friendly Fruit Salad</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼  fresh pineapple, cut into bite-size chunks\n\n\n1  orange, peeled and cut into bite-size pieces\n\n\n½  red apple, cut into bite-size pieces\n\n\n5  seedless red grapes, halved\n\n\n5  seedless green grapes, halved\n\n\n2 cups strawberry yogurt"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼  fresh pineapple, cut into bite-size chunks\n\n\n1  orange, peeled and cut into bite-size pieces\n\n\n½  red apple, cut into bite-size pieces\n\n\n5  seedless red grapes, halved\n\n\n5  seedless green grapes, halved\n\n\n2 cups strawberry yogurt'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir pineapple, orange, apple, red grapes, and green grapes together in a bowl. Pour yogurt over the top and stir to coat completely."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"300\nCalories\n\n\n2g \nFat\n\n\n62g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699658559-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NRpVSO5eYt2rp7uaI5H5UMRbf7k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3851835-3cb660e3efd44f6fa37608ffe9506af7.jpg"
@@ -2024,59 +2253,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/83637/green-bean-and-potato-salad/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Green Bean and Potato Salad</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds red potatoes\n\n\n¾ pound fresh green beans, trimmed and snapped\n\n\n1 small red onion, chopped\n\n\n¼ cup chopped fresh basil\n\n\n  salt and pepper to taste\n\n\n½ cup extra virgin olive oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons Dijon mustard\n\n\n2 tablespoons fresh lemon juice\n\n\n1 clove garlic, minced\n\n\n1 dash Worcestershire sauce"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds red potatoes\n\n\n¾ pound fresh green beans, trimmed and snapped\n\n\n1 small red onion, chopped\n\n\n¼ cup chopped fresh basil\n\n\n  salt and pepper to taste\n\n\n½ cup extra virgin olive oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons Dijon mustard\n\n\n2 tablespoons fresh lemon juice\n\n\n1 clove garlic, minced\n\n\n1 dash Worcestershire sauce'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes in a large pot and fill with about 1 inch of water; bring to a boil. Cook until potatoes are tender, about 15 minutes; add green beans to steam after the first 10 minutes. Drain and allow to cool slightly."},{"recipe_directions":"Cut potatoes into quarters and transfer to a large bowl. Add green beans, onion, basil, salt, and pepper; toss until combined. Set aside."},{"recipe_directions":"Whisk together olive oil, balsamic vinegar, mustard, lemon juice, garlic, and Worcestershire sauce in a medium bowl until well combined. Pour over salad and stir to coat. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Green Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n11g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699658567-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vw8I2k_bSHw8wufh2ZOFpyAIeQg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1823582-f9b74f9c08f144fdb399eb08e8046cdc.jpg"
@@ -2089,59 +2314,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240458/pico-de-gallo-with-cabbage-mexican-coleslaw/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Pico de Gallo with Cabbage (Mexican Coleslaw)</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head cabbage, shredded\n\n\n5  Roma (plum) tomatoes, diced\n\n\n¼  red onion, diced, or more to taste\n\n\n¼ cup pickled jalapeno slices, diced and juice reserved\n\n\n¼ cup chopped fresh cilantro, or to taste\n\n\n7 tablespoons lime juice\n\n\n3 tablespoons red wine vinegar\n\n\n¼ teaspoon chili powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon cayenne pepper, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head cabbage, shredded\n\n\n5  Roma (plum) tomatoes, diced\n\n\n¼  red onion, diced, or more to taste\n\n\n¼ cup pickled jalapeno slices, diced and juice reserved\n\n\n¼ cup chopped fresh cilantro, or to taste\n\n\n7 tablespoons lime juice\n\n\n3 tablespoons red wine vinegar\n\n\n¼ teaspoon chili powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon cayenne pepper, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cabbage, tomatoes, red onion, jalapeno slices, 2 tablespoons juice from jalapenos, cilantro, lime juice, vinegar, chili powder, black pepper, salt, and cayenne pepper in a bowl; refrigerate for flavors to blend, 1 to 2 hours."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"42\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699658574-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4UhPi69o4F-somGE3KeVn9_sZcI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/998528-e77aa07dfe9243ca82836be6f832206e.jpg"
@@ -2154,59 +2375,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25922/quinoa-tabbouleh/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Quinoa Tabbouleh</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 cup quinoa\n\n\n1 pinch salt\n\n\n¼ cup olive oil\n\n\n½ teaspoon sea salt\n\n\n¼ cup lemon juice\n\n\n3  tomatoes, diced\n\n\n1  cucumber, diced\n\n\n2 bunches green onions, diced\n\n\n2  carrots, grated\n\n\n1 cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup quinoa\n\n\n1 pinch salt\n\n\n¼ cup olive oil\n\n\n½ teaspoon sea salt\n\n\n¼ cup lemon juice\n\n\n3  tomatoes, diced\n\n\n1  cucumber, diced\n\n\n2 bunches green onions, diced\n\n\n2  carrots, grated\n\n\n1 cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan bring water to a boil. Add quinoa and a pinch of salt. Reduce heat to low, cover and simmer for 15 minutes. Allow to cool to room temperature; fluff with a fork."},{"recipe_directions":"Meanwhile, in a large bowl, combine olive oil, sea salt, lemon juice, tomatoes, cucumber, green onions, carrots and parsley. Stir in cooled quinoa."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Tabbouleh"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"354\nCalories\n\n\n17g \nFat\n\n\n46g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699658582-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BiaywYXgFTV02Wa09-mUkZ9FKEU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2378-66a2fe5fa8f948a2a4eedda816ab97c1.jpg"
@@ -2219,59 +2436,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15620/marinated-beet-salad/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Marinated Beet Salad</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) can whole beets\n\n\n¼ cup white sugar\n\n\n1 teaspoon prepared mustard\n\n\n¼ cup white wine vinegar\n\n\n¼ cup diced red onion"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) can whole beets\n\n\n¼ cup white sugar\n\n\n1 teaspoon prepared mustard\n\n\n¼ cup white wine vinegar\n\n\n¼ cup diced red onion'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Drain beets, reserving 1/4 cup liquid, and slice into 1/4 to 1/2 inch slivers. Add onions and toss."},{"recipe_directions":"In a saucepan over medium heat, cook the sugar, mustard and reserved 1/4 cup liquid until dissolved. Add vinegar and bring to boil; remove from heat and allow to cool."},{"recipe_directions":"Pour over the beet slices and onions, toss and refrigerate for 4 to 6 hours. Remove from refrigerator and serve at room temperature."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Beet Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"89\nCalories\n\n\n0g \nFat\n\n\n22g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699658589-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LsNy9QbeViYkVnhkkpB2HNRpYzo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8531494-55f467d824dc44dfa5add1d3ae3484e7.jpg"
@@ -2284,59 +2497,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16506/quick-artichoke-pasta-salad/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Quick Artichoke Pasta Salad</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nRefrigerate Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 20 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup salad macaroni, or other medium-size pasta\n\n\n1 (6.5 ounce) jar marinated artichoke hearts\n\n\n½ cup mushrooms, quartered\n\n\n1 cup cherry tomatoes, halved\n\n\n1 cup pitted black olives\n\n\n1 tablespoon chopped fresh parsley\n\n\n½ teaspoon dried basil\n\n\n½ tablespoon dried oregano\n\n\n2 cloves garlic, minced\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup salad macaroni, or other medium-size pasta\n\n\n1 (6.5 ounce) jar marinated artichoke hearts\n\n\n½ cup mushrooms, quartered\n\n\n1 cup cherry tomatoes, halved\n\n\n1 cup pitted black olives\n\n\n1 tablespoon chopped fresh parsley\n\n\n½ teaspoon dried basil\n\n\n½ tablespoon dried oregano\n\n\n2 cloves garlic, minced\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to boil; add pasta and boil until al dente according to packaging instructions, 8 to 10 minutes. Drain well and rinse with cold water."},{"recipe_directions":"In a large mixing bowl, combine pasta, artichoke hearts, mushrooms, tomatoes, olives, parsley, basil, oregano, garlic, salt and pepper; toss well."},{"recipe_directions":"Refrigerate for at least 4 hours. Before serving, season the pasta dish with salt and pepper to taste."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"155\nCalories\n\n\n6g \nFat\n\n\n24g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699658595-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ArmoVLflIH9hOuIPsfZFMZyr1DQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1121568-279718eaaf694a09a1c1e83f3892a0a7.jpg"
@@ -2349,59 +2558,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214756/ukrainian-salat-vinaigrette-beet-salad/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Ukrainian Salat Vinaigrette (Beet Salad)</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound beets\n\n\n1 pound carrots\n\n\n1 pound potatoes\n\n\n2 large dill pickles, diced\n\n\n1  onion, minced\n\n\n1 (8 ounce) can peas, drained\n\n\n2 tablespoons olive oil\n\n\n½ teaspoon ground black pepper\n\n\n1 tablespoon chopped fresh parsley (Optional)\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound beets\n\n\n1 pound carrots\n\n\n1 pound potatoes\n\n\n2 large dill pickles, diced\n\n\n1  onion, minced\n\n\n1 (8 ounce) can peas, drained\n\n\n2 tablespoons olive oil\n\n\n½ teaspoon ground black pepper\n\n\n1 tablespoon chopped fresh parsley (Optional)\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the beets into a large pot and cover with water. Bring to a boil over high heat, then reduce heat to medium-low, cover, and simmer for about 20 minutes. Add the carrots and potatoes. Boil for another 10 minutes, then cover the pot and leave overnight."},{"recipe_directions":"The next day, peel and dice the beets, carrots, and potatoes into small, even pieces. Place the vegetables in a large bowl. Stir in the pickles, onion, peas, olive oil, salt, and pepper. Garnish with parsley before serving."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Salad Dressing Recipes"},{"recipe_tags":"Vinaigrette Dressing Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"68\nCalories\n\n\n2g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699658600-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zzpYXU1hAOQu9V7T46KYmn29dX4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8025961-b1b6642b65f84ffcb8844ced7ce5c11d.jpg"
@@ -2414,59 +2619,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49713/dandelion-salad/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Dandelion Salad</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound torn dandelion greens\n\n\n½  red onion, chopped\n\n\n2  tomatoes, chopped\n\n\n½ teaspoon dried basil\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound torn dandelion greens\n\n\n½  red onion, chopped\n\n\n2  tomatoes, chopped\n\n\n½ teaspoon dried basil\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, toss together dandelion greens, red onion, and tomatoes. Season with basil, salt, and pepper."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"43\nCalories\n\n\n1g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699658606-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/65sO7K_6u4nSzCd48ZxkNgrHg2Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/297060-fc99d421eef84135a8d01ca711ae8c39.jpg"
@@ -2479,59 +2680,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/143619/curtido-el-salvadoran-cabbage-salad/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Curtido (El Salvadoran Cabbage Salad)</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ head green cabbage, cored and shredded\n\n\n1  carrot, grated\n\n\n1 quart boiling water\n\n\n3  green onions, minced\n\n\n1 cup distilled white vinegar\n\n\n½ cup water\n\n\n2 teaspoons dried oregano"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ head green cabbage, cored and shredded\n\n\n1  carrot, grated\n\n\n1 quart boiling water\n\n\n3  green onions, minced\n\n\n1 cup distilled white vinegar\n\n\n½ cup water\n\n\n2 teaspoons dried oregano'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the cabbage and carrot in a large bowl and pour the boiling water over the mixture. Allow the mixture to steep for 5 minutes; drain well. Return the cabbage and carrots to the bowl. Mix in the green onion, vinegar, 1/2 cup of water, and oregano. Toss until all ingredients are combined. Chill for 20 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"50\nCalories\n\n\n0g \nFat\n\n\n11g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699658612-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/36jNbmaYQr_U6kfoW8-PRoQHOUs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(940x0:942x2):format(webp)/9155453-1bcd13cd17474504baaea2c3674c40df.jpg"
@@ -2544,59 +2741,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215472/berry-fruit-salad/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Berry Fruit Salad</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup fresh strawberries, hulled and quartered lengthwise\n\n\n1 cup fresh blueberries\n\n\n1 cup fresh blackberries\n\n\n1 cup fresh raspberries\n\n\n1 teaspoon white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup fresh strawberries, hulled and quartered lengthwise\n\n\n1 cup fresh blueberries\n\n\n1 cup fresh blackberries\n\n\n1 cup fresh raspberries\n\n\n1 teaspoon white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix strawberries, blueberries, blackberries, and raspberries together in a bowl. Sprinkle with sugar."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"},{"recipe_tags":"Strawberry Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"45\nCalories\n\n\n0g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699658619-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vCbL4R77J4C3oIF4CTViI_8Yxws=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/105341-9175f6f872c045d1af7861dfbfc0620d.jpg"
@@ -2609,59 +2802,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14157/tomato-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Tomato Cucumber Salad</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tomatoes, cucumber, and onion in a salad bowl. Sprinkle with lemon juice; season with salt and black pepper. Mix until well combined. Place in the refrigerator to chill before serving."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"46\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699658625-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7qnSqTdyLDUG5ZSRqZ6BNS6jXh8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/45363-74120148260c4bf18f48d820be41a4f5.jpg"
@@ -2674,59 +2863,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14198/zesty-tuna-salad/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Zesty Tuna Salad</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (5 ounce) can tuna, drained\n\n\n1 teaspoon mayonnaise\n\n\n1 teaspoon sweet pickle relish\n\n\n1 teaspoon Dijon-style prepared mustard\n\n\n1 stalk celery, chopped\n\n\n¼ cup chopped onion\n\n\n¼ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (5 ounce) can tuna, drained\n\n\n1 teaspoon mayonnaise\n\n\n1 teaspoon sweet pickle relish\n\n\n1 teaspoon Dijon-style prepared mustard\n\n\n1 stalk celery, chopped\n\n\n¼ cup chopped onion\n\n\n¼ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mash tuna in a small bowl with a fork. Add mayonnaise, pickle relish, mustard, celery, onion, and black pepper; stir to combine. Chill and serve."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Tuna Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n2g \nFat\n\n\n4g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699658632-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/shfWctF8RysC8qXmyxKnhxWOYmc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2063x0:2065x2):format(webp)/4546602-718ce795ef934433a5f111b755905d61.jpg"
@@ -2739,59 +2924,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228277/tomato-watermelon-salad/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Tomato Watermelon Salad</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large seedless watermelon, cut into 1-inch cubes\n\n\n4  tomatoes, cut into 1-inch dice\n\n\n1 cup crumbled feta cheese\n\n\n1 large sweet onion, thinly sliced\n\n\n12  mint leaves, sliced thinly\n\n\n¼ cup olive oil\n\n\n2 tablespoons white balsamic vinegar\n\n\n1 pinch coarse salt, or to taste\n\n\n1 pinch ground black pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large seedless watermelon, cut into 1-inch cubes\n\n\n4  tomatoes, cut into 1-inch dice\n\n\n1 cup crumbled feta cheese\n\n\n1 large sweet onion, thinly sliced\n\n\n12  mint leaves, sliced thinly\n\n\n¼ cup olive oil\n\n\n2 tablespoons white balsamic vinegar\n\n\n1 pinch coarse salt, or to taste\n\n\n1 pinch ground black pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gently mix watermelon, tomatoes, feta cheese, onion, and mint in a large bowl."},{"recipe_directions":"Whisk olive oil, vinegar, salt, and pepper together in a small bowl; drizzle over salad and gently toss to coat."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"314\nCalories\n\n\n9g \nFat\n\n\n61g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699658638-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bLjY71cKfIsJsoZ0KgiZWz6eOh0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2376098-bdec087fe3544c8e8e103c2dd65a7f1a.jpg"
@@ -2804,59 +2985,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234655/freezer-slaw/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Freezer Slaw</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large head cabbage, shredded\n\n\n1  green bell pepper, finely chopped\n\n\n1 small small onion, finely chopped \n\n\n2  carrots, shredded\n\n\n2 cups boiling water\n\n\n2 teaspoons salt\n\n\n1 ½ cups white sugar\n\n\n1 cup water\n\n\n¾ cup cider vinegar\n\n\n2 teaspoons celery seed"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large head cabbage, shredded\n\n\n1  green bell pepper, finely chopped\n\n\n1 small small onion, finely chopped \n\n\n2  carrots, shredded\n\n\n2 cups boiling water\n\n\n2 teaspoons salt\n\n\n1 ½ cups white sugar\n\n\n1 cup water\n\n\n¾ cup cider vinegar\n\n\n2 teaspoons celery seed'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cabbage, green bell pepper, onion, and carrots in a large bowl. Mix boiling water and salt together in a separate bowl and pour over cabbage mixture; set aside for salt to draw out extra water from vegetables, about 1 hour. Drain well."},{"recipe_directions":"Mix sugar, 1 cup water, cider vinegar, and celery seed in a saucepan; bring to a boil. Cook and stir until sugar is dissolved, about 1 minute. Remove the saucepan from the heat and cool completely."},{"recipe_directions":"Pour cooled sugar-vinegar mixture over drained cabbage mixture in a large bowl and toss until slaw is well mixed. Spoon slaw into resealable plastic bags; squeeze out excess air, seal the bag, and freeze."},{"recipe_directions":"When ready to use, thaw in the refrigerator, drain any excess liquid, and mix in mayonnaise to suit your taste."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"102\nCalories\n\n\n0g \nFat\n\n\n25g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699658645-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M_m_OySSj_6OYXwd0JsZAmKHMck=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/209067-3413af8088b343beb8f9cc7eef0bd02f.jpg"
@@ -2869,59 +3046,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86229/no-sugar-three-bean-salad/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>No-Sugar Three Bean Salad</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n1 (15 ounce) can kidney beans, drained and rinsed\n\n\n1 (15 ounce) can green beans, drained and rinsed\n\n\n4  green onions, chopped\n\n\n1 stalk celery, sliced\n\n\n½ cup cider vinegar\n\n\n¼ cup vegetable oil\n\n\n1 tablespoon honey\n\n\n½ teaspoon ground dry mustard\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon onion powder (Optional)\n\n\n¼ teaspoon ground cayenne pepper (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n1 (15 ounce) can kidney beans, drained and rinsed\n\n\n1 (15 ounce) can green beans, drained and rinsed\n\n\n4  green onions, chopped\n\n\n1 stalk celery, sliced\n\n\n½ cup cider vinegar\n\n\n¼ cup vegetable oil\n\n\n1 tablespoon honey\n\n\n½ teaspoon ground dry mustard\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon onion powder (Optional)\n\n\n¼ teaspoon ground cayenne pepper (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, gently mix the garbanzo beans, kidney beans, green beans, green onions, and celery. In a separate bowl, whisk together the vinegar, oil, honey, mustard, garlic powder, black pepper, onion powder, and cayenne pepper. Pour dressing over the salad, and toss gently to coat. Cover, refrigerate at least 2 hours, and gently toss before serving."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Three Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"170\nCalories\n\n\n8g \nFat\n\n\n21g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699658653-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6YhgLMdPiyVZmBl6sf5cu207Fyw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/272849-healthy-chicken-salad-DDMFS-4x3-82d7b8f7723446f6a95c2e9ae19adc79.jpg"
@@ -2935,59 +3108,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272849/healthy-chicken-salad/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Healthy Chicken Salad</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (6 ounce) container fat-free Greek yogurt (such as Fage®)\n\n\n½ cup low-fat cottage cheese\n\n\n½ cup chopped celery\n\n\n½ cup diced apple\n\n\n¼ cup sweetened dried cranberries (such as Craisins®)\n\n\n2 tablespoons chopped onion\n\n\n2 tablespoons chopped pecans\n\n\n½ tablespoon Dijon mustard\n\n\n1 ¼ cups cubed, cooked chicken\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (6 ounce) container fat-free Greek yogurt (such as Fage®)\n\n\n½ cup low-fat cottage cheese\n\n\n½ cup chopped celery\n\n\n½ cup diced apple\n\n\n¼ cup sweetened dried cranberries (such as Craisins®)\n\n\n2 tablespoons chopped onion\n\n\n2 tablespoons chopped pecans\n\n\n½ tablespoon Dijon mustard\n\n\n1 ¼ cups cubed, cooked chicken\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This healthy chicken salad starts with a surprising ingredient: fat-free Greek yogurt! The lighter take on a classic potluck dish will become a staple in your recipe box."},{"recipe_directions":"These are the ingredients you'll need to make this healthy chicken salad:"},{"recipe_directions":"· Yogurt: This chicken salad starts with a container of fat-free Greek yogurt.\n· Cottage cheese: Low-fat cottage cheese adds richness and creaminess. Some reviewers like to substitute ricotta.\n· Vegetables: You'll need chopped celery and onion.\n· Fruit: Chopped apples and dried cranberries deliver bursts of sweet, fruity flavor. You can substitute raisins for cranberries if you like.\n· Pecans: Chopped pecans add welcome crunch and nutty flavor.\n· Seasonings: This healthy chicken salad is flavored with Dijon mustard, salt, and pepper.\n· Chicken: Of course, you'll need chicken. This is a great way to use leftover cooked chicken."},{"recipe_directions":"It couldn't be easier to make healthy chicken salad: Simply stir all the ingredients until they're well-combined. That's it! You'll find the full, step-by-step recipe below."},{"recipe_directions":"Store your leftover chicken salad in an airtight container in the refrigerator for up to five days. We don't recommend freezing this chicken salad, as yogurt has a tendency to separate during the freezing and thawing processes."},{"recipe_directions":"\"I added more onion, apple, cranberries, pecans and Dijon than was suggested,\" according to sabina Ephraim. \"You could probably put grapes in as well. It was the best chicken salad than I have ever had.\""},{"recipe_directions":"\"Amazing,\" raves Andrea Muniz. \"I just sort of eyeballed it so it wasn't exact but I think it's a personal preference on texture. The flavor was great! I am on a high-protein diet so this was perfect.\""},{"recipe_directions":"\"Yogurt and cottage cheese … who would have thought,\" says Debbie. \"It was tasty. Kids liked it, but I also kept our own spin on chicken salad sandwiches by adding a diced Granny Smith apple, candied pecans, and halved red grapes!\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Stir Greek yogurt, cottage cheese, celery, apple, cranberries, onion, pecans, and Dijon mustard in a bowl until well combined."},{"recipe_directions":"Mix in chicken. Season with salt and pepper."},{"recipe_directions":"Enjoy!"},{"recipe_directions":"You can use raisins instead of dried cranberries if preferred."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n6g \nFat\n\n\n13g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699658660-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2ltz2V9iSPXo7gj0Dr5owBvHmL8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2856152-68944fb62c194129b22269819cbe5aa9.jpg"
@@ -3000,59 +3169,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238162/vegan-black-bean-and-sweet-potato-salad/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Vegan Black Bean and Sweet Potato Salad</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound sweet potatoes, peeled and cut into 3/4-inch cubes\n\n\n3 tablespoons olive oil, divided\n\n\n½ teaspoon ground cumin, or more to taste\n\n\n¼ teaspoon red pepper flakes (Optional)\n\n\n  coarse salt and ground black pepper to taste\n\n\n2 tablespoons freshly squeezed lime juice\n\n\n1 (14.5 ounce) can black beans, rinsed and drained\n\n\n½  red onion, finely chopped\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound sweet potatoes, peeled and cut into 3/4-inch cubes\n\n\n3 tablespoons olive oil, divided\n\n\n½ teaspoon ground cumin, or more to taste\n\n\n¼ teaspoon red pepper flakes (Optional)\n\n\n  coarse salt and ground black pepper to taste\n\n\n2 tablespoons freshly squeezed lime juice\n\n\n1 (14.5 ounce) can black beans, rinsed and drained\n\n\n½  red onion, finely chopped\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Spread sweet potatoes onto a rimmed baking sheet. Drizzle 1 tablespoon olive oil over sweet potatoes; season with cumin, red pepper flakes, salt, and pepper. Toss sweet potatoes until evenly coated."},{"recipe_directions":"Roast on the lower rack of the preheated oven, stirring halfway through, until sweet potatoes are tender, 25 to 35 minutes."},{"recipe_directions":"Whisk remaining 2 tablespoons olive oil and lime juice together in a large bowl; season with salt and pepper. Add sweet potatoes, black beans, onion, and cilantro; gently toss to coat."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"291\nCalories\n\n\n11g \nFat\n\n\n42g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699658666-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bT4qN0O0csQirOORrKEEyTzlTRU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1038x0:1040x2):format(webp)/8206885-ebb8e9ecb4be4bce85653b2428d56782.jpg"
@@ -3065,59 +3230,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/188444/mexican-bean-and-rice-salad/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Mexican Bean and Rice Salad</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups cooked brown rice\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n1 small onion, diced\n\n\n1  green bell pepper, diced\n\n\n2  jalapeno peppers, seeded and diced\n\n\n1  lime, zested and juiced\n\n\n¼ cup chopped cilantro leaves\n\n\n1 teaspoon minced garlic\n\n\n1 ½ teaspoons ground cumin\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups cooked brown rice\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n1 small onion, diced\n\n\n1  green bell pepper, diced\n\n\n2  jalapeno peppers, seeded and diced\n\n\n1  lime, zested and juiced\n\n\n¼ cup chopped cilantro leaves\n\n\n1 teaspoon minced garlic\n\n\n1 ½ teaspoons ground cumin\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large salad bowl, combine the brown rice, kidney beans, black beans, corn, onion, green pepper, jalapeno peppers, lime zest and juice, cilantro, garlic, and cumin. Lightly toss all ingredients to mix well, and sprinkle with salt to taste."},{"recipe_directions":"Refrigerate salad for 1 hour, toss again, and serve."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n1g \nFat\n\n\n33g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699658672-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kcen_asCrEoOt7H-ytEcH7uU4SM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1332x0:1334x2):format(webp)/240181grandmas-carrot-saladEdibleTimes4x3-2c18d373ef574ae98eafc0ae7671f6ce.jpg"
@@ -3131,59 +3292,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240181/grandmas-carrot-salad/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Grandma's Carrot Salad</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound shredded carrots\n\n\n1 ¼ cups raisins\n\n\n2 to 3 tablespoons mayonnaise, or to taste\n\n\n1 teaspoon lemon juice\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound shredded carrots\n\n\n1 ¼ cups raisins\n\n\n2 to 3 tablespoons mayonnaise, or to taste\n\n\n1 teaspoon lemon juice\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix shredded carrots and raisins together in a large serving bowl."},{"recipe_directions":"Whisk mayonnaise, lemon juice, and salt in a small bowl until smooth. Pour over carrot mixture; stir until carrots and raisins are completely coated. Refrigerate until chilled, at least 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Carrot Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"167\nCalories\n\n\n4g \nFat\n\n\n35g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699658679-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dSAEwAaSOzJVzKmgBl2mDc6WS0w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/848870-d19de8a76afa43de901368ff0203023c.jpg"
@@ -3196,59 +3353,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/160623/quick-potato-salad/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Quick Potato Salad</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  potatoes, peeled and diced\n\n\n3  hard-cooked eggs, peeled and diced\n\n\n½  cucumber, peeled and diced\n\n\n1  tomato, diced\n\n\n1  celery stalk, diced\n\n\n¼  onion, diced\n\n\n¼ cup chopped green onion\n\n\n¾ cup low-fat mayonnaise\n\n\n1 tablespoon prepared yellow mustard\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  potatoes, peeled and diced\n\n\n3  hard-cooked eggs, peeled and diced\n\n\n½  cucumber, peeled and diced\n\n\n1  tomato, diced\n\n\n1  celery stalk, diced\n\n\n¼  onion, diced\n\n\n¼ cup chopped green onion\n\n\n¾ cup low-fat mayonnaise\n\n\n1 tablespoon prepared yellow mustard\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add potatoes and cook until soft, 5 to 7 minutes; drain and rinse with cold water."},{"recipe_directions":"Combine the potatoes, eggs, cucumber, tomato, celery, onion, green onion, mayonnaise, and mustard in a large bowl; stir until evenly combined. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Potato Salad Recipes"},{"recipe_tags":"Dairy-Free Potato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"160\nCalories\n\n\n5g \nFat\n\n\n25g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699658688-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RTJVksehV95ybRSPVQtXERXNdDA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/14147very-easy-fruit-saladChefMo4x3-07a6310c2aab4726a1a8bef08061abfa.jpg"
@@ -3262,59 +3415,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14147/very-easy-fruit-salad/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Very Easy Fruit Salad</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pint strawberries - cleaned, hulled and sliced\n\n\n1 pound seedless grapes, halved\n\n\n3  kiwis, peeled and sliced\n\n\n3  bananas, sliced\n\n\n1 (21 ounce) can peach pie filling"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pint strawberries - cleaned, hulled and sliced\n\n\n1 pound seedless grapes, halved\n\n\n3  kiwis, peeled and sliced\n\n\n3  bananas, sliced\n\n\n1 (21 ounce) can peach pie filling'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine the strawberries, grapes, kiwis, and bananas. Gently mix in peaches. Chill for 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"},{"recipe_tags":"Strawberry Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n1g \nFat\n\n\n35g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699658695-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j5GYBbszMhj9xY8hk96vbYXK5Vw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/215030-TacoSlaw-DDMFS-120-4x3-51194aa1604c40929deb64d455b9ea92.jpg"
@@ -3328,59 +3477,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215030/taco-slaw/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Taco Slaw</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ small head cabbage, finely chopped\n\n\n1 carrot, finely chopped\n\n\n½ red onion, minced\n\n\n1 jalapeño pepper, seeded and minced\n\n\n1 tablespoon chopped fresh cilantro\n\n\n1 lime, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ small head cabbage, finely chopped\n\n\n1 carrot, finely chopped\n\n\n½ red onion, minced\n\n\n1 jalapeño pepper, seeded and minced\n\n\n1 tablespoon chopped fresh cilantro\n\n\n1 lime, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Chop the cabbage, carrot, and cilantro. Mince the red onion. Seed and mince the jalapeño."},{"recipe_directions":"Combine chopped vegetables and lime juice in a bowl; toss to coat."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n0g \nFat\n\n\n7g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699658701-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WpvXL8OS_4Z5oMnHGFHXs0Qdpf8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3800828-53c6f7ea688a4de2a27fe5451a3c21bc.jpg"
@@ -3393,59 +3538,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50896/creamy-crab-and-pasta-salad/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Creamy Crab and Pasta Salad</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) package uncooked pasta shells\n\n\n½ cup light sour cream\n\n\n½ cup light mayonnaise\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon honey mustard\n\n\n1 tablespoon chopped fresh dill\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 pound cooked crabmeat\n\n\n½ cup diced red bell pepper\n\n\n½ cup diced green bell pepper\n\n\n½ cup chopped green onions"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package uncooked pasta shells\n\n\n½ cup light sour cream\n\n\n½ cup light mayonnaise\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon honey mustard\n\n\n1 tablespoon chopped fresh dill\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 pound cooked crabmeat\n\n\n½ cup diced red bell pepper\n\n\n½ cup diced green bell pepper\n\n\n½ cup chopped green onions'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add shells and cook, stirring occasionally, until tender yet firm to the bite, about 9 minutes. Drain."},{"recipe_directions":"Mix sour cream, mayonnaise, lemon juice, honey mustard, dill, salt, and pepper together in a bowl until creamy."},{"recipe_directions":"Transfer cooked pasta to a large bowl. Add sour cream mixture, crabmeat, bell peppers, and green onions. Toss until well combined, then cover and chill for 1 to 2 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Crab Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"393\nCalories\n\n\n12g \nFat\n\n\n48g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699658710-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MFoCVUQ0ThmSwgmVzRC23JAktTM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(956x0:958x2):format(webp)/5268357-08a9b525dded4e65bb620f76bbe3e3ca.jpg"
@@ -3458,59 +3599,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233495/jicama-mango-salad-with-cilantro-and-lime/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Jicama Mango Salad with Cilantro and Lime</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large jicama, peeled and cut into matchsticks\n\n\n1 small red bell pepper, cut into matchsticks\n\n\n1 large firm mango, peeled and cut into matchsticks\n\n\n½ medium red onion, thinly sliced"},{"recipe_ingredients":"½ cup chopped cilantro leaves\n\n\n¼ cup honey\n\n\n2 medium limes, juiced\n\n\n1 teaspoon salt\n\n\n⅛ teaspoon cayenne pepper, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large jicama, peeled and cut into matchsticks\n\n\n1 small red bell pepper, cut into matchsticks\n\n\n1 large firm mango, peeled and cut into matchsticks\n\n\n½ medium red onion, thinly sliced'}, {'recipe_ingredients': '½ cup chopped cilantro leaves\n\n\n¼ cup honey\n\n\n2 medium limes, juiced\n\n\n1 teaspoon salt\n\n\n⅛ teaspoon cayenne pepper, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the salad: Toss jicama, bell pepper, mango, and onion together in a large bowl."},{"recipe_directions":"Make the dressing: Stir cilantro, honey, lime juice, salt, and cayenne pepper together in a small bowl."},{"recipe_directions":"Pour dressing over salad and toss to coat. Cover and refrigerate for at least 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"126\nCalories\n\n\n0g \nFat\n\n\n32g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699658716-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gCkBwVsbC28vmXlrDJLwk_qfmUI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2113748-bc504b3ad5484cfcb6db43a2f7440b19.jpg"
@@ -3523,59 +3660,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241407/raw-beet-salad/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Raw Beet Salad</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound beets, grated\n\n\n2 tablespoons balsamic vinegar\n\n\n1 tablespoon extra-virgin olive oil\n\n\n1 tablespoon finely chopped fresh parsley\n\n\n1 large clove garlic, minced\n\n\n2 teaspoons Dijon mustard\n\n\n¼ teaspoon sea salt\n\n\n⅛ teaspoon freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound beets, grated\n\n\n2 tablespoons balsamic vinegar\n\n\n1 tablespoon extra-virgin olive oil\n\n\n1 tablespoon finely chopped fresh parsley\n\n\n1 large clove garlic, minced\n\n\n2 teaspoons Dijon mustard\n\n\n¼ teaspoon sea salt\n\n\n⅛ teaspoon freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir grated beets, vinegar, oil, parsley, garlic, mustard, salt, and pepper together in a bowl. Serve immediately or for best results, refrigerate for 2 to 3 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Beet Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"89\nCalories\n\n\n4g \nFat\n\n\n13g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699658723-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/htz1wMj4sW_bi6C-nkWyxAkCnWw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/406075-fdcd025744d444e88280c7f2f3f32466.jpg"
@@ -3588,59 +3721,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14056/copper-penny/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Copper Pennies</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 25 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10.5 ounce) can condensed tomato soup\n\n\n⅔ cup white sugar\n\n\n½ cup distilled white vinegar\n\n\n⅓ cup vegetable oil\n\n\n2 pounds carrots, sliced\n\n\n1 medium onion, chopped\n\n\n1 medium green bell pepper, chopped\n\n\n1 stalk celery, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10.5 ounce) can condensed tomato soup\n\n\n⅔ cup white sugar\n\n\n½ cup distilled white vinegar\n\n\n⅓ cup vegetable oil\n\n\n2 pounds carrots, sliced\n\n\n1 medium onion, chopped\n\n\n1 medium green bell pepper, chopped\n\n\n1 stalk celery, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring condensed soup, sugar, vinegar, and oil to a boil in a saucepan. Stir well, remove from the heat, and let cool until needed."},{"recipe_directions":"At the same time, bring a large pot of water to a boil; add carrots and boil until just tender, about 10 minutes."},{"recipe_directions":"Drain carrots and transfer to a mixing bowl. Add onion, bell pepper, and celery. Pour soup mixture over vegetables and stir until coated. Cover and refrigerate, 8 hours to overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"351\nCalories\n\n\n15g \nFat\n\n\n56g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699658733-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6OvQdc9BOMlA3wSI-sz281jV3Vs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1480605-27addea95da74cef827aa150e7cd4857.jpg"
@@ -3653,59 +3782,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214934/grilled-corn-salad/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Grilled Corn Salad</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n35 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 ears freshly shucked corn\n\n\n1 medium green bell pepper, diced\n\n\n2 medium Roma (plum) tomatoes, diced\n\n\n¼ cup diced red onion\n\n\n½ bunch fresh cilantro, chopped, or more to taste\n\n\n2 teaspoons olive oil, or to taste\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 ears freshly shucked corn\n\n\n1 medium green bell pepper, diced\n\n\n2 medium Roma (plum) tomatoes, diced\n\n\n¼ cup diced red onion\n\n\n½ bunch fresh cilantro, chopped, or more to taste\n\n\n2 teaspoons olive oil, or to taste\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Roast corn on the preheated grill, turning occasionally, until tender and specks of black appear, about 10 minutes. Remove from the grill and let sit until just cool enough to handle, 5 to 10 minutes."},{"recipe_directions":"Holding a corn cob over a large bowl, use a knife to carefully slice warm kernels directly into the bowl; discard cob. Repeat with remaining corn."},{"recipe_directions":"Add bell pepper, tomatoes, onion, cilantro, olive oil, salt, and pepper; toss until evenly mixed. Let sit until flavors have blended, at least 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"103\nCalories\n\n\n3g \nFat\n\n\n20g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699658739-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AjEM7iIu6uQTLhZP0fA-rLmj5tc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1278x0:1280x2):format(webp)/8229092-efac8c353602472e81edbc8457c17a0d.jpg"
@@ -3718,59 +3843,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/83576/tofu-salad/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Tofu Salad</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon sweet chili sauce\n\n\n1 tablespoon dark soy sauce\n\n\n1 tablespoon sesame oil\n\n\n2 cloves garlic, crushed\n\n\n½ teaspoon grated fresh ginger root\n\n\n8 ounces extra-firm tofu, drained and diced"},{"recipe_ingredients":"1 cup snow peas, trimmed\n\n\n1 cup finely shredded red cabbage\n\n\n2 small carrots, grated\n\n\n2 tablespoons chopped peanuts"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon sweet chili sauce\n\n\n1 tablespoon dark soy sauce\n\n\n1 tablespoon sesame oil\n\n\n2 cloves garlic, crushed\n\n\n½ teaspoon grated fresh ginger root\n\n\n8 ounces extra-firm tofu, drained and diced'}, {'recipe_ingredients': '1 cup snow peas, trimmed\n\n\n1 cup finely shredded red cabbage\n\n\n2 small carrots, grated\n\n\n2 tablespoons chopped peanuts'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the tofu: Whisk chili sauce, soy sauce, sesame oil, garlic, and ginger together in a large bowl. Add tofu and toss to coat. Cover and marinate for 1 hour in the refrigerator."},{"recipe_directions":"When the tofu is almost finished marinating, bring a pot of water to a boil. Add snow peas and blanch for 1 to 2 minutes. Transfer with a slotted spoon to a bowl of cold water. Drain and blot dry."},{"recipe_directions":"Make the salad: Combine snow peas, cabbage, carrots, and peanuts in a bowl. Add tofu and marinade and toss gently to combine."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"145\nCalories\n\n\n9g \nFat\n\n\n10g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699658748-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WpG1lA2TrGRYJdrg6gbdqctkf7o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5136804-f48db394696347eba9287e42d497e1e7.jpg"
@@ -3783,59 +3904,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/73733/crab-ceviche/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Crab Ceviche</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package imitation crabmeat, flaked\n\n\n1 tablespoon olive oil\n\n\n2 large tomatoes, chopped\n\n\n3  serrano peppers, finely chopped\n\n\n1  red onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, juiced\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package imitation crabmeat, flaked\n\n\n1 tablespoon olive oil\n\n\n2 large tomatoes, chopped\n\n\n3  serrano peppers, finely chopped\n\n\n1  red onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, juiced\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place imitation crab into a large glass or porcelain bowl; stir in olive oil until well coated. Stir in tomatoes, serrano peppers, onion, and cilantro. Squeeze lime juice on top and mix well. Season generously with salt and pepper. Cover and refrigerate for about 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Crab Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"62\nCalories\n\n\n2g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699658755-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/B9mnrZaKj63bziM9J4ztvKKWL9U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/228116-Warm-dijon-Potato-Salad-dmfs-4x3-1399-c0cd5aa4fe034a79b6b71f84323be612.jpg"
@@ -3849,59 +3966,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228116/warm-dijon-potato-salad/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Warm Dijon Potato Salad</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  red potatoes\n\n\n½ cup reduced-fat mayonnaise\n\n\n2 tablespoons grated Parmesan cheese\n\n\n1 ½ tablespoons Dijon mustard\n\n\n4 teaspoons cider vinegar\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon paprika\n\n\n½  red onion, thinly sliced\n\n\n2  green onions, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  red potatoes\n\n\n½ cup reduced-fat mayonnaise\n\n\n2 tablespoons grated Parmesan cheese\n\n\n1 ½ tablespoons Dijon mustard\n\n\n4 teaspoons cider vinegar\n\n\n½ teaspoon cayenne pepper\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon paprika\n\n\n½  red onion, thinly sliced\n\n\n2  green onions, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place potatoes into a large pot and cover with salted water; bring to a boil. Reduce heat to medium-low, cover, and simmer until tender, about 20 minutes. Drain and cut into cubes."},{"recipe_directions":"Whisk mayonnaise, Parmesan cheese, Dijon mustard, vinegar, cayenne pepper, salt, black pepper, and paprika together in a large bowl."},{"recipe_directions":"Add potatoes, red onion, and green onions; gently toss to combine."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Potato Salad Recipes"},{"recipe_tags":"Red Potato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"155\nCalories\n\n\n6g \nFat\n\n\n24g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699658763-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Asq8-tgFsRjJkaylByVfpV6IUEw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3538002-3df1eaa60bb940cea21b5637541828a5.jpg"
@@ -3914,59 +4027,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34615/easy-apple-coleslaw/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Easy Apple Slaw</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups chopped cabbage\n\n\n1  unpeeled red apple, cored and chopped\n\n\n1  unpeeled Granny Smith apple, cored and chopped\n\n\n1  carrot, grated\n\n\n½ cup finely chopped red bell pepper\n\n\n2  green onions, finely chopped\n\n\n⅓ cup mayonnaise\n\n\n⅓ cup brown sugar\n\n\n1 tablespoon lemon juice, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups chopped cabbage\n\n\n1  unpeeled red apple, cored and chopped\n\n\n1  unpeeled Granny Smith apple, cored and chopped\n\n\n1  carrot, grated\n\n\n½ cup finely chopped red bell pepper\n\n\n2  green onions, finely chopped\n\n\n⅓ cup mayonnaise\n\n\n⅓ cup brown sugar\n\n\n1 tablespoon lemon juice, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cabbage, red apple, green apple, carrot, red bell pepper, and green onions in a large bowl."},{"recipe_directions":"Mix together mayonnaise, brown sugar, and lemon juice in a small bowl. Pour dressing over cabbage mixture; mix until evenly coated."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"Apple Coleslaw Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"137\nCalories\n\n\n5g \nFat\n\n\n25g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699658769-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/R5aSN-JBgV5aAsV7mWhmxA7pp_0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/952228-25355c6584bc4f02bb28998402d7c510.jpg"
@@ -3979,59 +4088,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/141314/the-best-vegetable-salad/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>The Best Vegetable Salad</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  romaine lettuce leaves, torn into bite size pieces\n\n\n5  radishes, chopped\n\n\n2  fresh tomatoes, chopped\n\n\n2  green onion, minced\n\n\n1 small jicama, peeled and julienned\n\n\n1  cucumber, peeled and chopped\n\n\n1  red bell pepper, chopped\n\n\n2 tablespoons olive oil\n\n\n1 ½ tablespoons lemon juice\n\n\n1 tablespoon pomegranate juice\n\n\n1 ½ teaspoons water\n\n\n1 clove garlic, minced\n\n\n1 teaspoon chopped fresh dill\n\n\n1 teaspoon chopped fresh basil\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  romaine lettuce leaves, torn into bite size pieces\n\n\n5  radishes, chopped\n\n\n2  fresh tomatoes, chopped\n\n\n2  green onion, minced\n\n\n1 small jicama, peeled and julienned\n\n\n1  cucumber, peeled and chopped\n\n\n1  red bell pepper, chopped\n\n\n2 tablespoons olive oil\n\n\n1 ½ tablespoons lemon juice\n\n\n1 tablespoon pomegranate juice\n\n\n1 ½ teaspoons water\n\n\n1 clove garlic, minced\n\n\n1 teaspoon chopped fresh dill\n\n\n1 teaspoon chopped fresh basil\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place lettuce, radishes, tomatoes, green onion, jicama, cucumber, and bell pepper in a large salad bowl."},{"recipe_directions":"Whisk olive oil, lemon juice, pomegranate juice, water, garlic, dill, basil, salt, and black pepper in a small bowl. Drizzle dressing over the salad just before serving."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n5g \nFat\n\n\n11g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699658776-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1346/healthy-recipes/salads/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iAENwULZ0oKPi-Let2h7fsKPuc4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/94055-Best-Bean-Salad-1x1-0283-f86295ae992e45cc84b920d4add60cd0.jpg"
@@ -4045,42 +4150,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/94055/best-bean-salad/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Best Bean Salad</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 20 mins\n\n\nServings:\n18 \n\n\nYield:\n12 cups"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15.5 ounce) can garbanzo beans, drained\n\n\n1 (14.5 ounce) can kidney beans, drained\n\n\n1 (14.5 ounce) can black beans, drained\n\n\n1 (14.5 ounce) can green beans, drained\n\n\n1 (14.5 ounce) can wax beans, drained\n\n\n½ cup chopped green pepper\n\n\n½ cup chopped onion\n\n\n½ cup chopped celery\n\n\n¾ cup white sugar\n\n\n½ cup salad oil\n\n\n½ cup vinegar\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15.5 ounce) can garbanzo beans, drained\n\n\n1 (14.5 ounce) can kidney beans, drained\n\n\n1 (14.5 ounce) can black beans, drained\n\n\n1 (14.5 ounce) can green beans, drained\n\n\n1 (14.5 ounce) can wax beans, drained\n\n\n½ cup chopped green pepper\n\n\n½ cup chopped onion\n\n\n½ cup chopped celery\n\n\n¾ cup white sugar\n\n\n½ cup salad oil\n\n\n½ cup vinegar\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine garbanzo beans, kidney beans, black beans, green beans, wax beans, green pepper, onion, and celery in a large bowl; toss to mix."},{"recipe_directions":"Whisk together sugar, oil, vinegar, salt, and pepper in a separate bowl until sugar is dissolved; pour over bean mixture. Mix well."},{"recipe_directions":"Refrigerate salad for 8 hours to overnight before serving."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Three Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"167\nCalories\n\n\n7g \nFat\n\n\n24g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>